--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H2">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I2">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J2">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N2">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q2">
-        <v>11.45717847532263</v>
+        <v>18.238605894656</v>
       </c>
       <c r="R2">
-        <v>11.45717847532263</v>
+        <v>164.147453051904</v>
       </c>
       <c r="S2">
-        <v>0.002512746166769392</v>
+        <v>0.003043900339672859</v>
       </c>
       <c r="T2">
-        <v>0.002512746166769392</v>
+        <v>0.003043900339672858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H3">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I3">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J3">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N3">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q3">
-        <v>204.7920843292887</v>
+        <v>279.2015268783252</v>
       </c>
       <c r="R3">
-        <v>204.7920843292887</v>
+        <v>2512.813741904928</v>
       </c>
       <c r="S3">
-        <v>0.04491424533461705</v>
+        <v>0.04659685216133371</v>
       </c>
       <c r="T3">
-        <v>0.04491424533461705</v>
+        <v>0.04659685216133371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H4">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I4">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J4">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N4">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q4">
-        <v>516.7441234881294</v>
+        <v>796.0833670227945</v>
       </c>
       <c r="R4">
-        <v>516.7441234881294</v>
+        <v>7164.750303205151</v>
       </c>
       <c r="S4">
-        <v>0.1133304171085493</v>
+        <v>0.1328609459124618</v>
       </c>
       <c r="T4">
-        <v>0.1133304171085493</v>
+        <v>0.1328609459124618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H5">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I5">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J5">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N5">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q5">
-        <v>571.0377497624207</v>
+        <v>786.2209327391253</v>
       </c>
       <c r="R5">
-        <v>571.0377497624207</v>
+        <v>7075.988394652128</v>
       </c>
       <c r="S5">
-        <v>0.1252378951664831</v>
+        <v>0.1312149721335746</v>
       </c>
       <c r="T5">
-        <v>0.1252378951664831</v>
+        <v>0.1312149721335746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H6">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I6">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J6">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N6">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q6">
-        <v>899.731434751104</v>
+        <v>1270.963868323893</v>
       </c>
       <c r="R6">
-        <v>899.731434751104</v>
+        <v>11438.67481491504</v>
       </c>
       <c r="S6">
-        <v>0.1973257830156215</v>
+        <v>0.2121152994284817</v>
       </c>
       <c r="T6">
-        <v>0.1973257830156215</v>
+        <v>0.2121152994284817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H7">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I7">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J7">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N7">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q7">
-        <v>237.8531934805642</v>
+        <v>416.7426376779306</v>
       </c>
       <c r="R7">
-        <v>237.8531934805642</v>
+        <v>3750.683739101376</v>
       </c>
       <c r="S7">
-        <v>0.05216508597290716</v>
+        <v>0.06955153610483462</v>
       </c>
       <c r="T7">
-        <v>0.05216508597290716</v>
+        <v>0.06955153610483462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H8">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I8">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J8">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N8">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q8">
-        <v>2.46895419756648</v>
+        <v>3.277355707168</v>
       </c>
       <c r="R8">
-        <v>2.46895419756648</v>
+        <v>29.496201364512</v>
       </c>
       <c r="S8">
-        <v>0.0005414819372175029</v>
+        <v>0.0005469685680965594</v>
       </c>
       <c r="T8">
-        <v>0.0005414819372175029</v>
+        <v>0.0005469685680965593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H9">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I9">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J9">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N9">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q9">
-        <v>44.13148292332487</v>
+        <v>50.17065025966767</v>
       </c>
       <c r="R9">
-        <v>44.13148292332487</v>
+        <v>451.535852337009</v>
       </c>
       <c r="S9">
-        <v>0.009678754222802732</v>
+        <v>0.008373143224272241</v>
       </c>
       <c r="T9">
-        <v>0.009678754222802732</v>
+        <v>0.008373143224272239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H10">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I10">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J10">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N10">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q10">
-        <v>111.3553023112789</v>
+        <v>143.0508659139423</v>
       </c>
       <c r="R10">
-        <v>111.3553023112789</v>
+        <v>1287.457793225481</v>
       </c>
       <c r="S10">
-        <v>0.02442203459034739</v>
+        <v>0.02387422491943475</v>
       </c>
       <c r="T10">
-        <v>0.02442203459034739</v>
+        <v>0.02387422491943474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H11">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I11">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J11">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N11">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q11">
-        <v>123.055257651919</v>
+        <v>141.2786523208177</v>
       </c>
       <c r="R11">
-        <v>123.055257651919</v>
+        <v>1271.507870887359</v>
       </c>
       <c r="S11">
-        <v>0.02698802568465463</v>
+        <v>0.0235784544208976</v>
       </c>
       <c r="T11">
-        <v>0.02698802568465463</v>
+        <v>0.02357845442089759</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H12">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I12">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J12">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N12">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q12">
-        <v>193.8868026971794</v>
+        <v>228.3837214047217</v>
       </c>
       <c r="R12">
-        <v>193.8868026971794</v>
+        <v>2055.453492642495</v>
       </c>
       <c r="S12">
-        <v>0.04252253914991859</v>
+        <v>0.03811570309566666</v>
       </c>
       <c r="T12">
-        <v>0.04252253914991859</v>
+        <v>0.03811570309566666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H13">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I13">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J13">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N13">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q13">
-        <v>51.25595640438817</v>
+        <v>74.88586956167534</v>
       </c>
       <c r="R13">
-        <v>51.25595640438817</v>
+        <v>673.972826055078</v>
       </c>
       <c r="S13">
-        <v>0.01124126749501462</v>
+        <v>0.01249794666939264</v>
       </c>
       <c r="T13">
-        <v>0.01124126749501462</v>
+        <v>0.01249794666939264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H14">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I14">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J14">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N14">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q14">
-        <v>4.64516380131172</v>
+        <v>5.614908407893333</v>
       </c>
       <c r="R14">
-        <v>4.64516380131172</v>
+        <v>50.53417567104</v>
       </c>
       <c r="S14">
-        <v>0.001018760208798553</v>
+        <v>0.0009370903515726673</v>
       </c>
       <c r="T14">
-        <v>0.001018760208798553</v>
+        <v>0.000937090351572667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H15">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I15">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J15">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N15">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q15">
-        <v>83.03028350047599</v>
+        <v>85.95454114314221</v>
       </c>
       <c r="R15">
-        <v>83.03028350047599</v>
+        <v>773.59087028828</v>
       </c>
       <c r="S15">
-        <v>0.01820989583438621</v>
+        <v>0.01434523331954315</v>
       </c>
       <c r="T15">
-        <v>0.01820989583438621</v>
+        <v>0.01434523331954315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H16">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I16">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J16">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N16">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q16">
-        <v>209.5071750987993</v>
+        <v>245.0809681780578</v>
       </c>
       <c r="R16">
-        <v>209.5071750987993</v>
+        <v>2205.72871360252</v>
       </c>
       <c r="S16">
-        <v>0.04594834166842002</v>
+        <v>0.04090236099147937</v>
       </c>
       <c r="T16">
-        <v>0.04594834166842002</v>
+        <v>0.04090236099147937</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H17">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I17">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J17">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N17">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q17">
-        <v>231.5198187836733</v>
+        <v>242.0447347344756</v>
       </c>
       <c r="R17">
-        <v>231.5198187836733</v>
+        <v>2178.40261261028</v>
       </c>
       <c r="S17">
-        <v>0.05077607357106633</v>
+        <v>0.04039563410327165</v>
       </c>
       <c r="T17">
-        <v>0.05077607357106633</v>
+        <v>0.04039563410327165</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H18">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I18">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J18">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N18">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q18">
-        <v>364.7843926504249</v>
+        <v>391.2769293661556</v>
       </c>
       <c r="R18">
-        <v>364.7843926504249</v>
+        <v>3521.4923642954</v>
       </c>
       <c r="S18">
-        <v>0.08000316886953658</v>
+        <v>0.06530148110458187</v>
       </c>
       <c r="T18">
-        <v>0.08000316886953658</v>
+        <v>0.06530148110458187</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H19">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I19">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J19">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N19">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O19">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P19">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q19">
-        <v>96.43447963755293</v>
+        <v>128.2977303057511</v>
       </c>
       <c r="R19">
-        <v>96.43447963755293</v>
+        <v>1154.67957275176</v>
       </c>
       <c r="S19">
-        <v>0.02114965474052621</v>
+        <v>0.02141202606781248</v>
       </c>
       <c r="T19">
-        <v>0.02114965474052621</v>
+        <v>0.02141202606781248</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H20">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I20">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J20">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N20">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O20">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P20">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q20">
-        <v>2.824547261902092</v>
+        <v>3.502504459669333</v>
       </c>
       <c r="R20">
-        <v>2.824547261902092</v>
+        <v>31.522540137024</v>
       </c>
       <c r="S20">
-        <v>0.0006194692978284608</v>
+        <v>0.0005845443766958632</v>
       </c>
       <c r="T20">
-        <v>0.0006194692978284608</v>
+        <v>0.0005845443766958632</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H21">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I21">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J21">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N21">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P21">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q21">
-        <v>50.48755435707097</v>
+        <v>53.61728844222421</v>
       </c>
       <c r="R21">
-        <v>50.48755435707097</v>
+        <v>482.555595980018</v>
       </c>
       <c r="S21">
-        <v>0.01107274438933963</v>
+        <v>0.008948363896028041</v>
       </c>
       <c r="T21">
-        <v>0.01107274438933963</v>
+        <v>0.008948363896028041</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H22">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I22">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J22">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N22">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O22">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P22">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q22">
-        <v>127.3933370459512</v>
+        <v>152.8782166449958</v>
       </c>
       <c r="R22">
-        <v>127.3933370459512</v>
+        <v>1375.903949804962</v>
       </c>
       <c r="S22">
-        <v>0.02793943727276718</v>
+        <v>0.02551434348996116</v>
       </c>
       <c r="T22">
-        <v>0.02793943727276718</v>
+        <v>0.02551434348996116</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H23">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I23">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J23">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N23">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O23">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P23">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q23">
-        <v>140.77838762905</v>
+        <v>150.9842549978576</v>
       </c>
       <c r="R23">
-        <v>140.77838762905</v>
+        <v>1358.858294980718</v>
       </c>
       <c r="S23">
-        <v>0.03087499724655463</v>
+        <v>0.02519825406216446</v>
       </c>
       <c r="T23">
-        <v>0.03087499724655463</v>
+        <v>0.02519825406216446</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H24">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I24">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J24">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N24">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O24">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P24">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q24">
-        <v>221.8115014920293</v>
+        <v>244.0732939016656</v>
       </c>
       <c r="R24">
-        <v>221.8115014920293</v>
+        <v>2196.65964511499</v>
       </c>
       <c r="S24">
-        <v>0.04864688119504616</v>
+        <v>0.04073418694956487</v>
       </c>
       <c r="T24">
-        <v>0.04864688119504616</v>
+        <v>0.04073418694956487</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H25">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I25">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J25">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N25">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O25">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P25">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q25">
-        <v>58.63813571790221</v>
+        <v>80.03040119579511</v>
       </c>
       <c r="R25">
-        <v>58.63813571790221</v>
+        <v>720.273610762156</v>
       </c>
       <c r="S25">
-        <v>0.01286029986082704</v>
+        <v>0.0133565343092047</v>
       </c>
       <c r="T25">
-        <v>0.01286029986082704</v>
+        <v>0.0133565343092047</v>
       </c>
     </row>
   </sheetData>
